--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>1.889183055075</v>
+        <v>3.651657218808444</v>
       </c>
       <c r="R2">
-        <v>17.002647495675</v>
+        <v>32.864914969276</v>
       </c>
       <c r="S2">
-        <v>0.007375290334353443</v>
+        <v>0.01070351645587014</v>
       </c>
       <c r="T2">
-        <v>0.007375290334353445</v>
+        <v>0.01070351645587015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>2.2287487686</v>
+        <v>1.224870347052444</v>
       </c>
       <c r="R3">
-        <v>20.0587389174</v>
+        <v>11.023833123472</v>
       </c>
       <c r="S3">
-        <v>0.008700940444389677</v>
+        <v>0.00359026576986906</v>
       </c>
       <c r="T3">
-        <v>0.008700940444389679</v>
+        <v>0.003590265769869061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.285265609875</v>
+        <v>0.2099867011464444</v>
       </c>
       <c r="R4">
-        <v>2.567390488875</v>
+        <v>1.889880310318</v>
       </c>
       <c r="S4">
-        <v>0.001113664813784286</v>
+        <v>0.000615500299332109</v>
       </c>
       <c r="T4">
-        <v>0.001113664813784286</v>
+        <v>0.0006155002993321091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.2366409918</v>
+        <v>0.066279100004</v>
       </c>
       <c r="R5">
-        <v>2.1297689262</v>
+        <v>0.5965119000360001</v>
       </c>
       <c r="S5">
-        <v>0.0009238363719417676</v>
+        <v>0.0001942732833517611</v>
       </c>
       <c r="T5">
-        <v>0.0009238363719417677</v>
+        <v>0.0001942732833517611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>10.19563587405</v>
+        <v>4.016063911360222</v>
       </c>
       <c r="R6">
-        <v>91.76072286645</v>
+        <v>36.144575202242</v>
       </c>
       <c r="S6">
-        <v>0.03980332901698768</v>
+        <v>0.01177164328066283</v>
       </c>
       <c r="T6">
-        <v>0.03980332901698768</v>
+        <v>0.01177164328066284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.4248861065250001</v>
+        <v>0.09521328876511112</v>
       </c>
       <c r="R7">
-        <v>3.823974958725</v>
+        <v>0.856919598886</v>
       </c>
       <c r="S7">
-        <v>0.001658737297180815</v>
+        <v>0.0002790834248805604</v>
       </c>
       <c r="T7">
-        <v>0.001658737297180815</v>
+        <v>0.0002790834248805604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>0.5776198418941112</v>
+        <v>2.031557227699778</v>
       </c>
       <c r="R8">
-        <v>5.198578577047001</v>
+        <v>18.284015049298</v>
       </c>
       <c r="S8">
-        <v>0.002255003307068767</v>
+        <v>0.00595477749273026</v>
       </c>
       <c r="T8">
-        <v>0.002255003307068767</v>
+        <v>0.00595477749273026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>0.6814424403617778</v>
@@ -1013,10 +1013,10 @@
         <v>6.132981963256</v>
       </c>
       <c r="S9">
-        <v>0.002660322317796206</v>
+        <v>0.001997402805655623</v>
       </c>
       <c r="T9">
-        <v>0.002660322317796207</v>
+        <v>0.001997402805655623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>0.08722028076166669</v>
+        <v>0.1168236706987778</v>
       </c>
       <c r="R10">
-        <v>0.784982526855</v>
+        <v>1.051413036289</v>
       </c>
       <c r="S10">
-        <v>0.0003405042681983911</v>
+        <v>0.0003424264674457979</v>
       </c>
       <c r="T10">
-        <v>0.0003405042681983912</v>
+        <v>0.0003424264674457979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>0.07235324914755557</v>
+        <v>0.036873610142</v>
       </c>
       <c r="R11">
-        <v>0.6511792423280001</v>
+        <v>0.331862491278</v>
       </c>
       <c r="S11">
-        <v>0.0002824640088018618</v>
+        <v>0.0001080816925831342</v>
       </c>
       <c r="T11">
-        <v>0.0002824640088018619</v>
+        <v>0.0001080816925831342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>3.117327124948667</v>
+        <v>2.234290673287889</v>
       </c>
       <c r="R12">
-        <v>28.055944124538</v>
+        <v>20.108616059591</v>
       </c>
       <c r="S12">
-        <v>0.01216991257246851</v>
+        <v>0.006549017488705477</v>
       </c>
       <c r="T12">
-        <v>0.01216991257246851</v>
+        <v>0.006549017488705477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>0.1299094044987778</v>
+        <v>0.05297081116144445</v>
       </c>
       <c r="R13">
-        <v>1.169184640489</v>
+        <v>0.476737300453</v>
       </c>
       <c r="S13">
-        <v>0.0005071607924746129</v>
+        <v>0.0001552648331905362</v>
       </c>
       <c r="T13">
-        <v>0.000507160792474613</v>
+        <v>0.0001552648331905362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>1.043127686260445</v>
+        <v>7.373370588070222</v>
       </c>
       <c r="R14">
-        <v>9.388149176344001</v>
+        <v>66.360335292632</v>
       </c>
       <c r="S14">
-        <v>0.004072326141877078</v>
+        <v>0.02161237725659006</v>
       </c>
       <c r="T14">
-        <v>0.004072326141877079</v>
+        <v>0.02161237725659006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>1.230621638279111</v>
+        <v>2.473239532078222</v>
       </c>
       <c r="R15">
-        <v>11.075594744512</v>
+        <v>22.259155788704</v>
       </c>
       <c r="S15">
-        <v>0.004804294559843913</v>
+        <v>0.007249409910261483</v>
       </c>
       <c r="T15">
-        <v>0.004804294559843914</v>
+        <v>0.007249409910261484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.1575117111066667</v>
+        <v>0.4240019457862222</v>
       </c>
       <c r="R16">
-        <v>1.41760539996</v>
+        <v>3.816017512075999</v>
       </c>
       <c r="S16">
-        <v>0.0006149190240467997</v>
+        <v>0.001242808821339662</v>
       </c>
       <c r="T16">
-        <v>0.0006149190240467998</v>
+        <v>0.001242808821339662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.1306632354062222</v>
+        <v>0.133829748328</v>
       </c>
       <c r="R17">
-        <v>1.175969118656</v>
+        <v>1.204467734952</v>
       </c>
       <c r="S17">
-        <v>0.0005101037162905326</v>
+        <v>0.0003922736521203717</v>
       </c>
       <c r="T17">
-        <v>0.0005101037162905327</v>
+        <v>0.0003922736521203717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>5.629602716730667</v>
+        <v>8.10917502642711</v>
       </c>
       <c r="R18">
-        <v>50.666424450576</v>
+        <v>72.982575237844</v>
       </c>
       <c r="S18">
-        <v>0.02197772968131203</v>
+        <v>0.02376912265801773</v>
       </c>
       <c r="T18">
-        <v>0.02197772968131203</v>
+        <v>0.02376912265801773</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.2346042963031111</v>
+        <v>0.1922532211835556</v>
       </c>
       <c r="R19">
-        <v>2.111438666728</v>
+        <v>1.730278990652</v>
       </c>
       <c r="S19">
-        <v>0.0009158851993055988</v>
+        <v>0.0005635209969964531</v>
       </c>
       <c r="T19">
-        <v>0.0009158851993055991</v>
+        <v>0.000563520996996453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>0.3656071623266667</v>
+        <v>0.3300365852606666</v>
       </c>
       <c r="R20">
-        <v>3.29046446094</v>
+        <v>2.970329267346</v>
       </c>
       <c r="S20">
-        <v>0.001427314819087876</v>
+        <v>0.0009673832481268399</v>
       </c>
       <c r="T20">
-        <v>0.001427314819087877</v>
+        <v>0.00096738324812684</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>0.4313221583466667</v>
+        <v>0.1107037168346667</v>
       </c>
       <c r="R21">
-        <v>3.88189942512</v>
+        <v>0.996333451512</v>
       </c>
       <c r="S21">
-        <v>0.001683863369884157</v>
+        <v>0.000324488029369988</v>
       </c>
       <c r="T21">
-        <v>0.001683863369884157</v>
+        <v>0.0003244880293699881</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.05520648190000001</v>
+        <v>0.01897858688366667</v>
       </c>
       <c r="R22">
-        <v>0.4968583371</v>
+        <v>0.170807281953</v>
       </c>
       <c r="S22">
-        <v>0.0002155237584081358</v>
+        <v>5.562888432468268E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002155237584081359</v>
+        <v>5.562888432468269E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.04579632517333334</v>
+        <v>0.005990301534</v>
       </c>
       <c r="R23">
-        <v>0.41216692656</v>
+        <v>0.053912713806</v>
       </c>
       <c r="S23">
-        <v>0.000178786906590364</v>
+        <v>1.755840901893716E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001787869065903641</v>
+        <v>1.755840901893716E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>1.97312668564</v>
+        <v>0.3629716427563333</v>
       </c>
       <c r="R24">
-        <v>17.75814017076</v>
+        <v>3.266744784807</v>
       </c>
       <c r="S24">
-        <v>0.007703002699480496</v>
+        <v>0.001063920493754437</v>
       </c>
       <c r="T24">
-        <v>0.007703002699480497</v>
+        <v>0.001063920493754437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>0.08222676108666667</v>
+        <v>0.008605371975666668</v>
       </c>
       <c r="R25">
-        <v>0.7400408497800001</v>
+        <v>0.077448347781</v>
       </c>
       <c r="S25">
-        <v>0.0003210097796709312</v>
+        <v>2.522354510056867E-05</v>
       </c>
       <c r="T25">
-        <v>0.0003210097796709313</v>
+        <v>2.522354510056867E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>26.50427354157889</v>
+        <v>118.4803107672218</v>
       </c>
       <c r="R26">
-        <v>238.53846187421</v>
+        <v>1066.322796904996</v>
       </c>
       <c r="S26">
-        <v>0.1034715571607253</v>
+        <v>0.3472823104703603</v>
       </c>
       <c r="T26">
-        <v>0.1034715571607253</v>
+        <v>0.3472823104703604</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>31.26820710134222</v>
+        <v>39.74168731414578</v>
       </c>
       <c r="R27">
-        <v>281.41386391208</v>
+        <v>357.675185827312</v>
       </c>
       <c r="S27">
-        <v>0.1220697512544308</v>
+        <v>0.1164884266683189</v>
       </c>
       <c r="T27">
-        <v>0.1220697512544309</v>
+        <v>0.116488426668319</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>4.002130834183334</v>
+        <v>6.813150336419778</v>
       </c>
       <c r="R28">
-        <v>36.01917750765</v>
+        <v>61.31835302777799</v>
       </c>
       <c r="S28">
-        <v>0.0156241486386815</v>
+        <v>0.01997029358795676</v>
       </c>
       <c r="T28">
-        <v>0.0156241486386815</v>
+        <v>0.01997029358795676</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>3.319952273004445</v>
+        <v>2.150467005884</v>
       </c>
       <c r="R29">
-        <v>29.87957045704</v>
+        <v>19.354203052956</v>
       </c>
       <c r="S29">
-        <v>0.01296095253650915</v>
+        <v>0.006303318632080133</v>
       </c>
       <c r="T29">
-        <v>0.01296095253650915</v>
+        <v>0.006303318632080133</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>143.0395648585933</v>
+        <v>130.3037146608869</v>
       </c>
       <c r="R30">
-        <v>1287.35608372734</v>
+        <v>1172.733431947982</v>
       </c>
       <c r="S30">
-        <v>0.5584203803319759</v>
+        <v>0.3819383558101084</v>
       </c>
       <c r="T30">
-        <v>0.5584203803319759</v>
+        <v>0.3819383558101084</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>5.960935104252223</v>
+        <v>3.089254923478444</v>
       </c>
       <c r="R31">
-        <v>53.64841593827</v>
+        <v>27.803294311306</v>
       </c>
       <c r="S31">
-        <v>0.0232712372366447</v>
+        <v>0.009055036912971522</v>
       </c>
       <c r="T31">
-        <v>0.02327123723664471</v>
+        <v>0.009055036912971522</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>1.330767667077778</v>
+        <v>2.611200737254222</v>
       </c>
       <c r="R32">
-        <v>11.9769090037</v>
+        <v>23.500806635288</v>
       </c>
       <c r="S32">
-        <v>0.00519526039888134</v>
+        <v>0.007653793438448952</v>
       </c>
       <c r="T32">
-        <v>0.005195260398881342</v>
+        <v>0.007653793438448952</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>1.569962630844445</v>
+        <v>0.8758714637262223</v>
       </c>
       <c r="R33">
-        <v>14.1296636776</v>
+        <v>7.882843173536</v>
       </c>
       <c r="S33">
-        <v>0.006129067368806911</v>
+        <v>0.002567301382214558</v>
       </c>
       <c r="T33">
-        <v>0.006129067368806912</v>
+        <v>0.002567301382214559</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.2009451911666667</v>
+        <v>0.1501557774982222</v>
       </c>
       <c r="R34">
-        <v>1.8085067205</v>
+        <v>1.351401997484</v>
       </c>
       <c r="S34">
-        <v>0.0007844814837636183</v>
+        <v>0.0004401275199430229</v>
       </c>
       <c r="T34">
-        <v>0.0007844814837636184</v>
+        <v>0.000440127519943023</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.1666933120888889</v>
+        <v>0.047394381352</v>
       </c>
       <c r="R35">
-        <v>1.5002398088</v>
+        <v>0.426549432168</v>
       </c>
       <c r="S35">
-        <v>0.000650763603954587</v>
+        <v>0.0001389195399020633</v>
       </c>
       <c r="T35">
-        <v>0.0006507636039545871</v>
+        <v>0.0001389195399020633</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>7.181952288866666</v>
+        <v>2.871778049755111</v>
       </c>
       <c r="R36">
-        <v>64.6375705998</v>
+        <v>25.846002447796</v>
       </c>
       <c r="S36">
-        <v>0.02803803641768482</v>
+        <v>0.008417581873467991</v>
       </c>
       <c r="T36">
-        <v>0.02803803641768482</v>
+        <v>0.008417581873467993</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.2992958735444445</v>
+        <v>0.06808443260755556</v>
       </c>
       <c r="R37">
-        <v>2.6936628619</v>
+        <v>0.612759893468</v>
       </c>
       <c r="S37">
-        <v>0.001168438366697386</v>
+        <v>0.0001995649649288126</v>
       </c>
       <c r="T37">
-        <v>0.001168438366697387</v>
+        <v>0.0001995649649288126</v>
       </c>
     </row>
   </sheetData>
